--- a/2025-02-06/Auto Racing_2025-02-06.xlsx
+++ b/2025-02-06/Auto Racing_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235936912917?_skw=PSA+10&amp;epid=27062407479&amp;hash=item36eeef9615:g:oaYAAOSwfu5nnFnZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmdpXC6NINoAjfpc9PKlq40IXDUc60vMV9p7W4pYUrk8tdjmDq5cc3jDOTddjVddDK%2FG%2FAo2J4kz8XbYwLJdlBIPGpkMx1Mk5ZQQdJU81BY7No0OojrWB3YdNwMVdkMpFLfZdnp%2BZxUtSonbWbrdmMluMSknKtuLeZfyxhQ8sXrnx2DMfiNj9ytSTSd4Xa0lZUuv6uhRmItOF8kQVQ1YZGG7z1%2F%2B1lyUJR5iALWNNinsphwS23ty8Z1yt8R0C%2BBYJiZioxgDEcAp2zkIE2aokaX%7Ctkp%3ABk9SR4CW84qcZQ</t>
+          <t>https://www.ebay.com/itm/235936912917?_skw=PSA+10&amp;epid=27062407479&amp;hash=item36eeef9615:g:oaYAAOSwfu5nnFnZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmdpXC6NINoAjfpc9PKlq40IXDUc60vMV9p7W4pYUrk8tdjmDq5cc3jDOTddjVddDK%2FG%2FAo2J4kz8XbYwLJdlBIPGpkMx1Mk5ZQQdJU81BY7No0OojrWB3YdNwMVdkMpFLqbN92JoZGAFtj9tXb0QVS3MQZeKYZuICmNePfB%2FoNNCNj3wPmHZYxyA2TFo222gUMC5uMq%2FDwaNEJOowt58T15n6L7%2FEEQkgYLL9HzavQVqj5tMHZv30Gs1eLH6%2FOqGuXhLb%2BgSstmgd6Ypb5WY1R%7Ctkp%3ABk9SR4KZkrCcZQ</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176818337160?_skw=PSA+10&amp;hash=item292b31b588:g:pp0AAOSwUvNnnsX2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmBOXkdHdv3%2BhX065tyi8tdzDs1bOSjAK5Qx9T8CLlhrqjUksjkj4l9%2BoIj8NIUZXgRtAvq2iuO9XWmPqSi7Spldwc83WZP5bdcsdNK5LZoSA%2B9w41NIUrBqsPI7oCWmbFF%2B%2F3SfRDv69yTvU9AtiRqvjLzUm863MqZwnP5GIMicxOB51TvV1BoJUuYikwnBiYzogYNxE2CkuSW%2BwDXk31jBoBoO1kdAX5bvg4bkALRGA%3D%3D%7Ctkp%3ABk9SR4KW84qcZQ</t>
+          <t>https://www.ebay.com/itm/176818337160?_skw=PSA+10&amp;hash=item292b31b588:g:pp0AAOSwUvNnnsX2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmBOXkdHdv3%2BhX065tyi8tdzDs1bOSjAK5Qx9T8CLlhrssXyNz63wUbZrcU%2FYMiuYHBJHseR5Sv1wd0nQuXXusTPRYHnSc2N7NCVJkcwkc7zq6EEVXDPWW4jvReklb1BVHA0m2fnae7fFbLbVgfGbOxhmrcPZzTb%2Bf2fRMBWOUCnXuoEPJPnladbyDP45908fa2Ee5njzaqKTBkEAYkvX2pL0Ws1ejoPVALxLS87XZRbw%3D%3D%7Ctkp%3ABk9SR4KZkrCcZQ</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176818336723?_skw=PSA+10&amp;hash=item292b31b3d3:g:QosAAOSwXBtnns--&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKncJ8b3veuUjyY4R7jbfJEoKpHUl1sMOYWBT5pZSfak2AuZwNIC6LDmcTv3yYjnMYhHliRnaulGMb%2FRH%2F%2Bkq9Tx8IXl8uK%2B731bIYR4lagkrC2yavIj9Tj6QrZD1IM%2BiYMbzI4PcZPMKkN1KBIYSEHSjnwRQdKSlXCZniU3QjfGxjLutanrIkOggOgcmIKF%2BhPYUjxz7ktch1BdawIXDtDfMLhdRdN4eN5C1BBDHHiqp1ZbJZKW2ioNp13hgYZV23j%2B6IL0sSE1R4RjSWf9WUKF%7Ctkp%3ABk9SR7KW84qcZQ</t>
+          <t>https://www.ebay.com/itm/176818336723?_skw=PSA+10&amp;hash=item292b31b3d3:g:QosAAOSwXBtnns--&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmNeP%2FDoW5Z9JHpVuvFLTKSNTS4pc%2BWN9qUxxPWfqV3B%2BWCoxTffDky6KA0MaA0kBwDmxBEcDzj2IwVq95NRuFqbMxKBMSQwSfBRsc3Y%2BsHf3HX9g7diLRO%2BuU1zsAFBHAfj5DkB5Bk3g%2FAMWQ%2F0k40MlYY9896lIu1e4Spz5UQhBF1nauj96yL1kd0Q0v0LbVlSB%2BdKxLSa51RcnQfY8A6M5PbzjtKAnrzS18jiVhprg%3D%3D%7Ctkp%3ABk9SR4KZkrCcZQ</t>
         </is>
       </c>
     </row>
@@ -639,45 +639,197 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176811706047?_skw=PSA+10&amp;epid=28062410473&amp;hash=item292acc86bf:g:gqwAAOSwDyhnmS1l&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluqfLF2mr19Vfk1gcjwodxuRhi3YpPxAFxYfUkWZEOLRhHI%2BfwKei0y1LkrbZVVLEHJ3%2BdQVqiOdn0ZWtNlk0DCDQ9BOS6E%2Fue3ytDpa18pNEtunQ1u9GoDYmEu2EvCWC%2F0JqRqFCV3sSXbaxP0Jfi8Bji8XIs7XpHij2DE2flBBVPqf68M4vU%2Fi8IBP2xiR2egmZt9oDYZqg5g38ejq3ehmRP6dH56eUHyzC7p4ZPsg%3D%3D%7Ctkp%3ABk9SR7SW84qcZQ</t>
+          <t>https://www.ebay.com/itm/176811706047?_skw=PSA+10&amp;epid=28062410473&amp;hash=item292acc86bf:g:gqwAAOSwDyhnmS1l&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl16llhcIMPXr9EdVx5ZqGVrOc0VMV5h79uM44Q%2BT4kttik8%2FyTt1IoPYcb9%2Bjv52dOG3DMoHKehatoB2VtSlbErMExEEU6X39l3nAy1BbX%2FnI7Zi9yyGZNQxHiYGJcFqXRt2N728naAIG6kX6QKGyN1kxEk%2FYdkxWKUHUsH%2F9AGKcJ4FnnvXZoRfFDO7BFUj7nms1Cvn3ST2t9juI8BUaV6dZs%2FpcM18WQAoZ6z3Xe0FO6scjdL8rrhC3tXkHKyp2TMxHVGRi1MEUCal1LqFDj%7Ctkp%3ABk9SR4KZkrCcZQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Auto Racing</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Topps Paddock Pass Formula 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Max Verstappen</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$1,050.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/306072696537?_skw=PSA+10&amp;epid=19074266875&amp;hash=item47435ab6d9:g:J-cAAeSwN4lnmleo&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkUiGvsUFO1pAdVVJJ6%2BGiEr73nMHXHPY%2FE0ltnHkCv3zjUc9PpBp4eRAjrE7tg3DP8gEHLREiF%2BB8vbk7MK2U6TMdKW%2F9EgSBIhrRtILZeE4Y1jWm1vIb7E%2Bg%2FfN%2BC4yQOlyfDqFS4qLeTVTe2ZbOTOhJyXkX2It3ZFW34cPryXpaaE2ZYYix%2BYTjYRqBsm0hLXBw7kumBX%2B47HnE6M6OgVJNzibWltJEP6hNTSP4N9g%3D%3D%7Ctkp%3ABk9SR4KZkrCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Auto Racing</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$471.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205256160027?_skw=PSA+10&amp;hash=item2fca38731b:g:~dYAAeSwgHZnm31S&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnZjP8NzaQRPgA1FZtKMN3NE8xFwCV63GsIpX%2B5rUiptMDewDnvnwT1g%2B0Dr06t5OQD%2BRTmiqpW8M163MC08HgDvIhGLGAdx1fqwsshwGtqaOWj9GC%2BdttGAVTA6S1so1yzDCVGZoWwY0FffDB54lsN%2B%2FN7bAK1vrNm2Pj1LprIJfdrNQo%2FBx5tTtV7re907gIvVB6o%2Blk0ao1a6ekTHi2RkKN%2BAoYNsHHV87HuwTDFs4a4SYnDKVAnbwWPgaG6SnzbXsKUdy66btvoqWY5%2BnQZ%7Ctkp%3ABk9SR4SZkrCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Football</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Donruss Optic</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Lamar Jackson</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>$202.50</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/387875654679?_skw=PSA+10&amp;epid=3055538586&amp;hash=item5a4f30cc17:g:-kAAAOSwYw5nm8GN&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkKqKm2rqFVzfWj7mEth5a%2FgnmVRMlkV%2F%2BAiGmH3npYr4Hv6i4kRs%2F6B1otaOOtViQ%2BVxQKD7jGewM8%2F2kSnhwc961MNBq56EytYpbi6wXn%2FIzLZZE45XRNRpun6sdrTGc14KgvOsG50lv2gGI5YqH%2B2MFpVhLIBcMvtYTHAtv%2FUBf%2FbGRTDB0nbOPhskqbMt1fOij%2Bb%2BPotYEtLZK6gY08Zv9Unmu81Qa6LDJZAeW6wk0wu0kQp%2BvbyYRmkq6HTmGLH1xKUy%2FY4o2hOHwkB6fy%7Ctkp%3ABk9SR7SW84qcZQ</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/387875654679?_skw=PSA+10&amp;epid=3055538586&amp;hash=item5a4f30cc17:g:-kAAAOSwYw5nm8GN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnipX0Ajyv919ParfLlKCQo7lIhmAdk5h0ET44BVyF7AtsRuFsX0LDdr38yQabE%2BoYM6HF%2FcRc%2FD9sS5KOn%2BjTCeK6Pos0q%2Bxbu7mlNr4kd7RQ%2BN4o8qSsy1nk61kdbrmJmGXZw13RAVHen6anNifL87cbSKX0FXlelbTvhRvO7LYYXGL7PnxNQflt9aH%2FEr61wnw%2FsYAWjIvw2OrwQqCvMX7zJYd43CqgDhVg9umIUdg%3D%3D%7Ctkp%3ABk9SR4SZkrCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Auto Racing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lewis Hamilton</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$4,400.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/135052444996?_skw=PSA+10&amp;hash=item1f71c0c544:g:bNoAAOSwivZl7PrA&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm2JAlUoBnU0IKLqJ5x3acPpmGwsMoUhCUCO13sruiWdyQQA89wO9EFiP88XBQKwtaK4JT9iyRdnbhnGDo1jdB41gnGX77gUV2jie%2FWS1BJJuXHKMMq2yLrmyHesyseXA6FMW2wGFQl5TWPHkLlh0McxUB7e%2Bt5Sn%2BWVtfDmxjZ9E6DdcI667KOq00Puzg9gcIjg2GWc%2B9bV8mz3rnblG5XcQTf5BC%2BgmHK9x4OZb%2BhMx79UogCKrwDY9mkYwmd7gPOlhVhjhi6tipOaYM8iva4%7Ctkp%3ABk9SR4SZkrCcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Auto Racing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gold Refractor Autograph /50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Carlos Sainz</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$183.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/135525919654?_skw=PSA+10&amp;hash=item1f8df96ba6:g:5e8AAOSw1yFnm8QE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkr%2BnahW3YnHwesHhmRtWdnJtqwxoRJS9R2tovlPCXOFNaAekCPO50GedBZHneL9wAQTLYd%2FQIHzIx2fVtFt%2By1NULDl7S8g8iLS3eY8gfomcQ8t6rORTGBNbqrypYXHg6yRsDRZCqGcN2F7h134eSd3Ct03wvv7akg7KFsRWEdxYfdQfLNkIOF2ciC2s5vP0k25BfuncrNlIywPoiPU3%2BVhPLECwu76uyQstHSQDKxYiLk%2B0izaud%2FKxhOMH0SRyJP3tWyAAnx78WS%2B8hmLVp9%7Ctkp%3ABk9SR4SZkrCcZQ</t>
         </is>
       </c>
     </row>
